--- a/Code/Results/Cases/Case_3_220/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_220/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.362358283646017</v>
+        <v>2.686394174516352</v>
       </c>
       <c r="C2">
-        <v>0.8154532478838235</v>
+        <v>0.3325364391967014</v>
       </c>
       <c r="D2">
-        <v>0.01160509508549268</v>
+        <v>0.01496881308703024</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.023893171278331</v>
+        <v>3.963262293284828</v>
       </c>
       <c r="G2">
-        <v>0.0008277804598112239</v>
+        <v>0.002605820754676929</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.676694778876751</v>
+        <v>2.331366034889314</v>
       </c>
       <c r="J2">
-        <v>0.05865066785575479</v>
+        <v>0.1380561296583309</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3379785060032958</v>
+        <v>0.4776836227994323</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.931495816533356</v>
+        <v>2.593448375293065</v>
       </c>
       <c r="C3">
-        <v>0.7021787248482951</v>
+        <v>0.3040863828185536</v>
       </c>
       <c r="D3">
-        <v>0.009729548670325272</v>
+        <v>0.01432943959175859</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.810777306582679</v>
+        <v>3.932235353567819</v>
       </c>
       <c r="G3">
-        <v>0.0008375055561622316</v>
+        <v>0.002611799434967612</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.584845290099736</v>
+        <v>2.320481800466922</v>
       </c>
       <c r="J3">
-        <v>0.05938850393712869</v>
+        <v>0.1386378639724875</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3043462395273195</v>
+        <v>0.4724143378576855</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.671728637808599</v>
+        <v>2.538031024753877</v>
       </c>
       <c r="C4">
-        <v>0.6338945544504213</v>
+        <v>0.2868107735639853</v>
       </c>
       <c r="D4">
-        <v>0.008633498299808195</v>
+        <v>0.01393273769992476</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.686177567935673</v>
+        <v>3.915172326769138</v>
       </c>
       <c r="G4">
-        <v>0.0008436287915160885</v>
+        <v>0.00261566246422732</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.531902882814194</v>
+        <v>2.314890436770369</v>
       </c>
       <c r="J4">
-        <v>0.05988836401277098</v>
+        <v>0.1390222083820163</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2842318761153848</v>
+        <v>0.4694227632581232</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.566923411503126</v>
+        <v>2.515862969610112</v>
       </c>
       <c r="C5">
-        <v>0.6063400800104262</v>
+        <v>0.2798187316864187</v>
       </c>
       <c r="D5">
-        <v>0.008198689218730237</v>
+        <v>0.01376998595525336</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.636831152977692</v>
+        <v>3.908716594195283</v>
       </c>
       <c r="G5">
-        <v>0.0008461643585238955</v>
+        <v>0.002617285154698622</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.511121743852982</v>
+        <v>2.312885097919164</v>
       </c>
       <c r="J5">
-        <v>0.06010348363731666</v>
+        <v>0.1391856628037953</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.27615672597409</v>
+        <v>0.4682649750863135</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.549579967733564</v>
+        <v>2.512207033892992</v>
       </c>
       <c r="C6">
-        <v>0.6017798179470333</v>
+        <v>0.2786605852759294</v>
       </c>
       <c r="D6">
-        <v>0.008127146493183801</v>
+        <v>0.013742893549054</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.628719560884832</v>
+        <v>3.907674613363795</v>
       </c>
       <c r="G6">
-        <v>0.0008465878789551962</v>
+        <v>0.002617557533891728</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.507716893167725</v>
+        <v>2.312568574746962</v>
       </c>
       <c r="J6">
-        <v>0.06013988421951133</v>
+        <v>0.1392132169202522</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2748228361804195</v>
+        <v>0.4680764278940899</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.670311127916307</v>
+        <v>2.537730378919207</v>
       </c>
       <c r="C7">
-        <v>0.633521902914282</v>
+        <v>0.2867162832164354</v>
       </c>
       <c r="D7">
-        <v>0.008627589026964699</v>
+        <v>0.0139305472685507</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.685506459820374</v>
+        <v>3.915083250749632</v>
       </c>
       <c r="G7">
-        <v>0.0008436628211609122</v>
+        <v>0.002615684152060593</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.53161950350966</v>
+        <v>2.314862287695348</v>
       </c>
       <c r="J7">
-        <v>0.05989121938622866</v>
+        <v>0.1390243851244382</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2841224959384476</v>
+        <v>0.4694069007047119</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.212708502999135</v>
+        <v>2.654003361982745</v>
       </c>
       <c r="C8">
-        <v>0.7761037363863466</v>
+        <v>0.3226864731625483</v>
       </c>
       <c r="D8">
-        <v>0.01094552879323984</v>
+        <v>0.01474917946050169</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.949022140395186</v>
+        <v>3.952150312157841</v>
       </c>
       <c r="G8">
-        <v>0.0008311034378074225</v>
+        <v>0.002607842437203354</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.644260952831004</v>
+        <v>2.32738579464413</v>
       </c>
       <c r="J8">
-        <v>0.05889513403144164</v>
+        <v>0.1382510764265703</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3262625455411268</v>
+        <v>0.475816171178792</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.321969099930811</v>
+        <v>2.895155656851728</v>
       </c>
       <c r="C9">
-        <v>1.068128232445304</v>
+        <v>0.3947844985885354</v>
       </c>
       <c r="D9">
-        <v>0.0160405723851369</v>
+        <v>0.01632434143657235</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.522638275066953</v>
+        <v>4.040718067152199</v>
       </c>
       <c r="G9">
-        <v>0.0008075760367085951</v>
+        <v>0.002593981249548044</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.896331470523066</v>
+        <v>2.360668108777787</v>
       </c>
       <c r="J9">
-        <v>0.05733086146388011</v>
+        <v>0.1369500070202943</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.413817750782016</v>
+        <v>0.4903205719077448</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.176928377197385</v>
+        <v>3.080417198481996</v>
       </c>
       <c r="C10">
-        <v>1.294025620641548</v>
+        <v>0.4487546330212808</v>
       </c>
       <c r="D10">
-        <v>0.0202944425264171</v>
+        <v>0.01746681298327601</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.990173558721807</v>
+        <v>4.115631242476553</v>
       </c>
       <c r="G10">
-        <v>0.0007907976813249842</v>
+        <v>0.002584710931890057</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.106500641833804</v>
+        <v>2.390530414718583</v>
       </c>
       <c r="J10">
-        <v>0.05644608576268872</v>
+        <v>0.1361252873603789</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4821980285848895</v>
+        <v>0.5021613588273368</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.577756969419568</v>
+        <v>3.166472353199595</v>
       </c>
       <c r="C11">
-        <v>1.400254233646876</v>
+        <v>0.4735351063784492</v>
       </c>
       <c r="D11">
-        <v>0.022387933315553</v>
+        <v>0.01798412248440684</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.215877447606999</v>
+        <v>4.151884406727874</v>
       </c>
       <c r="G11">
-        <v>0.0007832321360567591</v>
+        <v>0.00258068964355903</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.209098923138995</v>
+        <v>2.40531045252871</v>
       </c>
       <c r="J11">
-        <v>0.0561081118569362</v>
+        <v>0.1357785592478216</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5144626921689337</v>
+        <v>0.5078063618702657</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.731565531327192</v>
+        <v>3.199316115465422</v>
       </c>
       <c r="C12">
-        <v>1.441077079791398</v>
+        <v>0.4829525747431944</v>
       </c>
       <c r="D12">
-        <v>0.02320823929373006</v>
+        <v>0.01817973088228442</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.303512005336927</v>
+        <v>4.16592801372181</v>
       </c>
       <c r="G12">
-        <v>0.0007803727388891061</v>
+        <v>0.002579194866547108</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.249109005153102</v>
+        <v>2.411080749363549</v>
       </c>
       <c r="J12">
-        <v>0.05599010224957013</v>
+        <v>0.1356513508118731</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.526874010717421</v>
+        <v>0.5099812220407642</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.698344642123573</v>
+        <v>3.192231201003381</v>
       </c>
       <c r="C13">
-        <v>1.43225690416142</v>
+        <v>0.4809228471905271</v>
       </c>
       <c r="D13">
-        <v>0.02303026183379231</v>
+        <v>0.01813761483994725</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.284536888646841</v>
+        <v>4.162889406137651</v>
       </c>
       <c r="G13">
-        <v>0.000780988388376623</v>
+        <v>0.002579515550889526</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.240437918071763</v>
+        <v>2.409830275827673</v>
       </c>
       <c r="J13">
-        <v>0.05601506197747064</v>
+        <v>0.1356785655177415</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5241919398938393</v>
+        <v>0.5095111709553919</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.590368386192665</v>
+        <v>3.169169283205065</v>
       </c>
       <c r="C14">
-        <v>1.403600187018696</v>
+        <v>0.4743092089824472</v>
       </c>
       <c r="D14">
-        <v>0.02245483807733351</v>
+        <v>0.01800022067763507</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.223041962244423</v>
+        <v>4.153033448292547</v>
       </c>
       <c r="G14">
-        <v>0.0007829968070029684</v>
+        <v>0.002580566106934668</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.212366403927192</v>
+        <v>2.405781694125011</v>
       </c>
       <c r="J14">
-        <v>0.05609819890069545</v>
+        <v>0.1357680117624049</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.515479735061021</v>
+        <v>0.5079845427429177</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.524503374592371</v>
+        <v>3.155076625762149</v>
       </c>
       <c r="C15">
-        <v>1.386127946922443</v>
+        <v>0.4702625662160926</v>
       </c>
       <c r="D15">
-        <v>0.02210611717024236</v>
+        <v>0.01791602741500498</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.185665985934975</v>
+        <v>4.147037530946534</v>
       </c>
       <c r="G15">
-        <v>0.0007842276064310153</v>
+        <v>0.002581213244271088</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.1953275693905</v>
+        <v>2.403324449816651</v>
       </c>
       <c r="J15">
-        <v>0.05615044391089619</v>
+        <v>0.1358233328130485</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5101693072587352</v>
+        <v>0.5070542872518331</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.150998432994356</v>
+        <v>3.074829148319111</v>
       </c>
       <c r="C16">
-        <v>1.287161123322051</v>
+        <v>0.4471398407789025</v>
       </c>
       <c r="D16">
-        <v>0.02016120502729635</v>
+        <v>0.01743296233155078</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.975709365689767</v>
+        <v>4.113305995757372</v>
       </c>
       <c r="G16">
-        <v>0.0007912931166824023</v>
+        <v>0.002584977659219279</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.099948861024814</v>
+        <v>2.389588689585821</v>
       </c>
       <c r="J16">
-        <v>0.05646952871032873</v>
+        <v>0.1361485191779277</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4801149697619138</v>
+        <v>0.5017976508122359</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.925121832667287</v>
+        <v>3.026056021914201</v>
       </c>
       <c r="C17">
-        <v>1.22740121630568</v>
+        <v>0.433013980112662</v>
       </c>
       <c r="D17">
-        <v>0.01901178292987638</v>
+        <v>0.01713604410655378</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.850437962170531</v>
+        <v>4.093171638169935</v>
       </c>
       <c r="G17">
-        <v>0.0007956419866888573</v>
+        <v>0.002587337045996091</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.04332978525035</v>
+        <v>2.38146951242615</v>
       </c>
       <c r="J17">
-        <v>0.05668226659652653</v>
+        <v>0.136355295010647</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4619921554043316</v>
+        <v>0.4986391258487117</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.796302839280827</v>
+        <v>2.998170384608727</v>
       </c>
       <c r="C18">
-        <v>1.193348549401605</v>
+        <v>0.4249106891483621</v>
       </c>
       <c r="D18">
-        <v>0.01836524545997165</v>
+        <v>0.01696503442909858</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.779590778902048</v>
+        <v>4.081795432622471</v>
       </c>
       <c r="G18">
-        <v>0.0007981499280337579</v>
+        <v>0.002588712544760947</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.011411675352562</v>
+        <v>2.376912014280066</v>
       </c>
       <c r="J18">
-        <v>0.05681065328739265</v>
+        <v>0.1364769039861464</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.451675583288548</v>
+        <v>0.4968467610252105</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.752866966483452</v>
+        <v>2.988757511616313</v>
       </c>
       <c r="C19">
-        <v>1.181871054905855</v>
+        <v>0.4221707313573688</v>
       </c>
       <c r="D19">
-        <v>0.01814871028549447</v>
+        <v>0.01690709212255115</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.755801952980448</v>
+        <v>4.07797869719343</v>
       </c>
       <c r="G19">
-        <v>0.0007990003214601377</v>
+        <v>0.002589181436996602</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.000711685238642</v>
+        <v>2.37538818946723</v>
       </c>
       <c r="J19">
-        <v>0.05685513802129272</v>
+        <v>0.1365185384657401</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4482002227843935</v>
+        <v>0.4962440756152233</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.949050899687393</v>
+        <v>3.031230676500513</v>
       </c>
       <c r="C20">
-        <v>1.233729015509709</v>
+        <v>0.4345154688671187</v>
       </c>
       <c r="D20">
-        <v>0.0191325998726164</v>
+        <v>0.01716767494335159</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.863646551786246</v>
+        <v>4.095293786691769</v>
       </c>
       <c r="G20">
-        <v>0.0007951783883128527</v>
+        <v>0.002587083977761739</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.049288911728681</v>
+        <v>2.382322164977765</v>
       </c>
       <c r="J20">
-        <v>0.05665899193196466</v>
+        <v>0.1363330063115082</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4639100837243433</v>
+        <v>0.4989728373650877</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.622025995947581</v>
+        <v>3.17593615861341</v>
       </c>
       <c r="C21">
-        <v>1.412000318883031</v>
+        <v>0.4762508763096776</v>
       </c>
       <c r="D21">
-        <v>0.02262306430689165</v>
+        <v>0.01804058393700103</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.241043190367719</v>
+        <v>4.155919803520135</v>
       </c>
       <c r="G21">
-        <v>0.0007824067720778706</v>
+        <v>0.002580256774683516</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.220578918073599</v>
+        <v>2.406966142166794</v>
       </c>
       <c r="J21">
-        <v>0.05607350283823642</v>
+        <v>0.1357416282288497</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5180332385636035</v>
+        <v>0.5084319399838506</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.073828632349546</v>
+        <v>3.272005282623638</v>
       </c>
       <c r="C22">
-        <v>1.532043957075416</v>
+        <v>0.503723791121331</v>
       </c>
       <c r="D22">
-        <v>0.02506768164225903</v>
+        <v>0.01860944490441696</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.500484563122825</v>
+        <v>4.197381564022606</v>
       </c>
       <c r="G22">
-        <v>0.000774089530648316</v>
+        <v>0.00257595791980133</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.339366873665526</v>
+        <v>2.42408392246341</v>
       </c>
       <c r="J22">
-        <v>0.05574938552350162</v>
+        <v>0.1353789681298654</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.554548535517867</v>
+        <v>0.5148309787405339</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.831481713993639</v>
+        <v>3.220594256123036</v>
       </c>
       <c r="C23">
-        <v>1.467614702472019</v>
+        <v>0.4890427776240927</v>
       </c>
       <c r="D23">
-        <v>0.02374619482614548</v>
+        <v>0.01830596259446082</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.3607367293001</v>
+        <v>4.17508349549766</v>
       </c>
       <c r="G23">
-        <v>0.0007785274036063002</v>
+        <v>0.002578237427757677</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.275284900149686</v>
+        <v>2.414854786823057</v>
       </c>
       <c r="J23">
-        <v>0.05591676005698254</v>
+        <v>0.1355703452305068</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5349451360947057</v>
+        <v>0.5113958247120678</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.938229350588017</v>
+        <v>3.028890733416119</v>
       </c>
       <c r="C24">
-        <v>1.230867277476705</v>
+        <v>0.4338365902394798</v>
       </c>
       <c r="D24">
-        <v>0.01907793440142669</v>
+        <v>0.01715337560342789</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.857671316326645</v>
+        <v>4.094333742750308</v>
       </c>
       <c r="G24">
-        <v>0.0007953879567971658</v>
+        <v>0.002587198330697591</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.046592830415094</v>
+        <v>2.381936337235018</v>
       </c>
       <c r="J24">
-        <v>0.0566694955184186</v>
+        <v>0.1363430745269572</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4630426711195952</v>
+        <v>0.4988218931529929</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.01583634217053</v>
+        <v>2.828503107112226</v>
       </c>
       <c r="C25">
-        <v>0.9874377583008993</v>
+        <v>0.3751080563264679</v>
       </c>
       <c r="D25">
-        <v>0.01458678968878147</v>
+        <v>0.01590107882192626</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.360277379276567</v>
+        <v>4.015041509852608</v>
       </c>
       <c r="G25">
-        <v>0.0008138386830150873</v>
+        <v>0.002597569860662342</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.824230357981634</v>
+        <v>2.350721005909691</v>
       </c>
       <c r="J25">
-        <v>0.05770976236671466</v>
+        <v>0.1372789358172337</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3895041260922625</v>
+        <v>0.4861890806642464</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_220/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_220/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.686394174516352</v>
+        <v>3.362358283646074</v>
       </c>
       <c r="C2">
-        <v>0.3325364391967014</v>
+        <v>0.8154532478835677</v>
       </c>
       <c r="D2">
-        <v>0.01496881308703024</v>
+        <v>0.01160509508545005</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.963262293284828</v>
+        <v>3.023893171278331</v>
       </c>
       <c r="G2">
-        <v>0.002605820754676929</v>
+        <v>0.0008277804597432942</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.331366034889314</v>
+        <v>1.676694778876723</v>
       </c>
       <c r="J2">
-        <v>0.1380561296583309</v>
+        <v>0.05865066785572814</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4776836227994323</v>
+        <v>0.3379785060031963</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.593448375293065</v>
+        <v>2.931495816533186</v>
       </c>
       <c r="C3">
-        <v>0.3040863828185536</v>
+        <v>0.7021787248482951</v>
       </c>
       <c r="D3">
-        <v>0.01432943959175859</v>
+        <v>0.009729548670325272</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.932235353567819</v>
+        <v>2.810777306582708</v>
       </c>
       <c r="G3">
-        <v>0.002611799434967612</v>
+        <v>0.0008375055561655355</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.320481800466922</v>
+        <v>1.58484529009975</v>
       </c>
       <c r="J3">
-        <v>0.1386378639724875</v>
+        <v>0.05938850393703454</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4724143378576855</v>
+        <v>0.3043462395273338</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.538031024753877</v>
+        <v>2.671728637808428</v>
       </c>
       <c r="C4">
-        <v>0.2868107735639853</v>
+        <v>0.6338945544504213</v>
       </c>
       <c r="D4">
-        <v>0.01393273769992476</v>
+        <v>0.008633498299907671</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.915172326769138</v>
+        <v>2.686177567935673</v>
       </c>
       <c r="G4">
-        <v>0.00261566246422732</v>
+        <v>0.0008436287914475911</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.314890436770369</v>
+        <v>1.531902882814208</v>
       </c>
       <c r="J4">
-        <v>0.1390222083820163</v>
+        <v>0.05988836401277631</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4694227632581232</v>
+        <v>0.2842318761153848</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.515862969610112</v>
+        <v>2.566923411503126</v>
       </c>
       <c r="C5">
-        <v>0.2798187316864187</v>
+        <v>0.6063400800105114</v>
       </c>
       <c r="D5">
-        <v>0.01376998595525336</v>
+        <v>0.008198689218701816</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.908716594195283</v>
+        <v>2.636831152977706</v>
       </c>
       <c r="G5">
-        <v>0.002617285154698622</v>
+        <v>0.00084616435852112</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.312885097919164</v>
+        <v>1.511121743852996</v>
       </c>
       <c r="J5">
-        <v>0.1391856628037953</v>
+        <v>0.06010348363716034</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4682649750863135</v>
+        <v>0.2761567259741184</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.512207033892992</v>
+        <v>2.549579967733621</v>
       </c>
       <c r="C6">
-        <v>0.2786605852759294</v>
+        <v>0.6017798179474028</v>
       </c>
       <c r="D6">
-        <v>0.013742893549054</v>
+        <v>0.008127146493393411</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.907674613363795</v>
+        <v>2.628719560884846</v>
       </c>
       <c r="G6">
-        <v>0.002617557533891728</v>
+        <v>0.0008465878790102305</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.312568574746962</v>
+        <v>1.507716893167725</v>
       </c>
       <c r="J6">
-        <v>0.1392132169202522</v>
+        <v>0.06013988421955929</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4680764278940899</v>
+        <v>0.2748228361805189</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.537730378919207</v>
+        <v>2.670311127916477</v>
       </c>
       <c r="C7">
-        <v>0.2867162832164354</v>
+        <v>0.6335219029142536</v>
       </c>
       <c r="D7">
-        <v>0.0139305472685507</v>
+        <v>0.008627589026843907</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.915083250749632</v>
+        <v>2.685506459820374</v>
       </c>
       <c r="G7">
-        <v>0.002615684152060593</v>
+        <v>0.0008436628211606534</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.314862287695348</v>
+        <v>1.53161950350966</v>
       </c>
       <c r="J7">
-        <v>0.1390243851244382</v>
+        <v>0.05989121938617537</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4694069007047119</v>
+        <v>0.2841224959385471</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.654003361982745</v>
+        <v>3.212708502999305</v>
       </c>
       <c r="C8">
-        <v>0.3226864731625483</v>
+        <v>0.7761037363865739</v>
       </c>
       <c r="D8">
-        <v>0.01474917946050169</v>
+        <v>0.01094552879321498</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.952150312157841</v>
+        <v>2.949022140395186</v>
       </c>
       <c r="G8">
-        <v>0.002607842437203354</v>
+        <v>0.0008311034377442081</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.32738579464413</v>
+        <v>1.644260952831033</v>
       </c>
       <c r="J8">
-        <v>0.1382510764265703</v>
+        <v>0.05889513403152336</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.475816171178792</v>
+        <v>0.326262545541141</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.895155656851728</v>
+        <v>4.321969099930811</v>
       </c>
       <c r="C9">
-        <v>0.3947844985885354</v>
+        <v>1.068128232445247</v>
       </c>
       <c r="D9">
-        <v>0.01632434143657235</v>
+        <v>0.01604057238512269</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.040718067152199</v>
+        <v>3.522638275066981</v>
       </c>
       <c r="G9">
-        <v>0.002593981249548044</v>
+        <v>0.0008075760366507671</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.360668108777787</v>
+        <v>1.89633147052308</v>
       </c>
       <c r="J9">
-        <v>0.1369500070202943</v>
+        <v>0.05733086146388366</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4903205719077448</v>
+        <v>0.413817750782087</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.080417198481996</v>
+        <v>5.176928377197612</v>
       </c>
       <c r="C10">
-        <v>0.4487546330212808</v>
+        <v>1.294025620641321</v>
       </c>
       <c r="D10">
-        <v>0.01746681298327601</v>
+        <v>0.02029444252652013</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.115631242476553</v>
+        <v>3.990173558721779</v>
       </c>
       <c r="G10">
-        <v>0.002584710931890057</v>
+        <v>0.0007907976813750676</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.390530414718583</v>
+        <v>2.106500641833819</v>
       </c>
       <c r="J10">
-        <v>0.1361252873603789</v>
+        <v>0.05644608576272603</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5021613588273368</v>
+        <v>0.4821980285848895</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.166472353199595</v>
+        <v>5.577756969419625</v>
       </c>
       <c r="C11">
-        <v>0.4735351063784492</v>
+        <v>1.400254233646649</v>
       </c>
       <c r="D11">
-        <v>0.01798412248440684</v>
+        <v>0.022387933315553</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.151884406727874</v>
+        <v>4.215877447606999</v>
       </c>
       <c r="G11">
-        <v>0.00258068964355903</v>
+        <v>0.0007832321359246878</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.40531045252871</v>
+        <v>2.209098923138981</v>
       </c>
       <c r="J11">
-        <v>0.1357785592478216</v>
+        <v>0.05610811185685449</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5078063618702657</v>
+        <v>0.5144626921689195</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.199316115465422</v>
+        <v>5.731565531327306</v>
       </c>
       <c r="C12">
-        <v>0.4829525747431944</v>
+        <v>1.441077079791512</v>
       </c>
       <c r="D12">
-        <v>0.01817973088228442</v>
+        <v>0.02320823929385796</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.16592801372181</v>
+        <v>4.303512005336955</v>
       </c>
       <c r="G12">
-        <v>0.002579194866547108</v>
+        <v>0.000780372738902841</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.411080749363549</v>
+        <v>2.249109005153102</v>
       </c>
       <c r="J12">
-        <v>0.1356513508118731</v>
+        <v>0.05599010224958612</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5099812220407642</v>
+        <v>0.5268740107174352</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.192231201003381</v>
+        <v>5.698344642123573</v>
       </c>
       <c r="C13">
-        <v>0.4809228471905271</v>
+        <v>1.43225690416142</v>
       </c>
       <c r="D13">
-        <v>0.01813761483994725</v>
+        <v>0.02303026183417245</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.162889406137651</v>
+        <v>4.284536888646841</v>
       </c>
       <c r="G13">
-        <v>0.002579515550889526</v>
+        <v>0.0007809883883778178</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.409830275827673</v>
+        <v>2.240437918071777</v>
       </c>
       <c r="J13">
-        <v>0.1356785655177415</v>
+        <v>0.05601506197748662</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5095111709553919</v>
+        <v>0.5241919398939814</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.169169283205065</v>
+        <v>5.590368386192665</v>
       </c>
       <c r="C14">
-        <v>0.4743092089824472</v>
+        <v>1.403600187019038</v>
       </c>
       <c r="D14">
-        <v>0.01800022067763507</v>
+        <v>0.02245483807731219</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.153033448292547</v>
+        <v>4.223041962244451</v>
       </c>
       <c r="G14">
-        <v>0.002580566106934668</v>
+        <v>0.0007829968069997363</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.405781694125011</v>
+        <v>2.21236640392722</v>
       </c>
       <c r="J14">
-        <v>0.1357680117624049</v>
+        <v>0.05609819890051249</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5079845427429177</v>
+        <v>0.5154797350610778</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.155076625762149</v>
+        <v>5.524503374592427</v>
       </c>
       <c r="C15">
-        <v>0.4702625662160926</v>
+        <v>1.386127946922613</v>
       </c>
       <c r="D15">
-        <v>0.01791602741500498</v>
+        <v>0.02210611717039868</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.147037530946534</v>
+        <v>4.185665985934975</v>
       </c>
       <c r="G15">
-        <v>0.002581213244271088</v>
+        <v>0.0007842276064326942</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.403324449816651</v>
+        <v>2.195327569390514</v>
       </c>
       <c r="J15">
-        <v>0.1358233328130485</v>
+        <v>0.05615044391099033</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5070542872518331</v>
+        <v>0.5101693072587778</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.074829148319111</v>
+        <v>5.150998432994356</v>
       </c>
       <c r="C16">
-        <v>0.4471398407789025</v>
+        <v>1.287161123321823</v>
       </c>
       <c r="D16">
-        <v>0.01743296233155078</v>
+        <v>0.02016120502706897</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.113305995757372</v>
+        <v>3.975709365689795</v>
       </c>
       <c r="G16">
-        <v>0.002584977659219279</v>
+        <v>0.0007912931166094804</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.389588689585821</v>
+        <v>2.099948861024799</v>
       </c>
       <c r="J16">
-        <v>0.1361485191779277</v>
+        <v>0.05646952871056143</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5017976508122359</v>
+        <v>0.4801149697619991</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.026056021914201</v>
+        <v>4.925121832667287</v>
       </c>
       <c r="C17">
-        <v>0.433013980112662</v>
+        <v>1.22740121630568</v>
       </c>
       <c r="D17">
-        <v>0.01713604410655378</v>
+        <v>0.01901178292962058</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.093171638169935</v>
+        <v>3.85043796217056</v>
       </c>
       <c r="G17">
-        <v>0.002587337045996091</v>
+        <v>0.0007956419866145955</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.38146951242615</v>
+        <v>2.043329785250336</v>
       </c>
       <c r="J17">
-        <v>0.136355295010647</v>
+        <v>0.05668226659641284</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4986391258487117</v>
+        <v>0.4619921554044168</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.998170384608727</v>
+        <v>4.796302839280713</v>
       </c>
       <c r="C18">
-        <v>0.4249106891483621</v>
+        <v>1.193348549401605</v>
       </c>
       <c r="D18">
-        <v>0.01696503442909858</v>
+        <v>0.01836524545996099</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.081795432622471</v>
+        <v>3.779590778902048</v>
       </c>
       <c r="G18">
-        <v>0.002588712544760947</v>
+        <v>0.0007981499280322634</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.376912014280066</v>
+        <v>2.011411675352562</v>
       </c>
       <c r="J18">
-        <v>0.1364769039861464</v>
+        <v>0.05681065328719015</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4968467610252105</v>
+        <v>0.4516755832885906</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.988757511616313</v>
+        <v>4.752866966483737</v>
       </c>
       <c r="C19">
-        <v>0.4221707313573688</v>
+        <v>1.181871054905855</v>
       </c>
       <c r="D19">
-        <v>0.01690709212255115</v>
+        <v>0.01814871028520315</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.07797869719343</v>
+        <v>3.755801952980534</v>
       </c>
       <c r="G19">
-        <v>0.002589181436996602</v>
+        <v>0.0007990003215770004</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.37538818946723</v>
+        <v>2.000711685238656</v>
       </c>
       <c r="J19">
-        <v>0.1365185384657401</v>
+        <v>0.05685513802105291</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4962440756152233</v>
+        <v>0.4482002227842514</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.031230676500513</v>
+        <v>4.94905089968745</v>
       </c>
       <c r="C20">
-        <v>0.4345154688671187</v>
+        <v>1.233729015510164</v>
       </c>
       <c r="D20">
-        <v>0.01716767494335159</v>
+        <v>0.01913259987274429</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.095293786691769</v>
+        <v>3.863646551786246</v>
       </c>
       <c r="G20">
-        <v>0.002587083977761739</v>
+        <v>0.0007951783884390693</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.382322164977765</v>
+        <v>2.049288911728709</v>
       </c>
       <c r="J20">
-        <v>0.1363330063115082</v>
+        <v>0.05665899193181723</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4989728373650877</v>
+        <v>0.4639100837245138</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.17593615861341</v>
+        <v>5.622025995947638</v>
       </c>
       <c r="C21">
-        <v>0.4762508763096776</v>
+        <v>1.412000318882974</v>
       </c>
       <c r="D21">
-        <v>0.01804058393700103</v>
+        <v>0.02262306430709415</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.155919803520135</v>
+        <v>4.241043190367748</v>
       </c>
       <c r="G21">
-        <v>0.002580256774683516</v>
+        <v>0.0007824067720918482</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.406966142166794</v>
+        <v>2.220578918073613</v>
       </c>
       <c r="J21">
-        <v>0.1357416282288497</v>
+        <v>0.05607350283823642</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5084319399838506</v>
+        <v>0.518033238563504</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.272005282623638</v>
+        <v>6.073828632349603</v>
       </c>
       <c r="C22">
-        <v>0.503723791121331</v>
+        <v>1.532043957075473</v>
       </c>
       <c r="D22">
-        <v>0.01860944490441696</v>
+        <v>0.02506768164227324</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.197381564022606</v>
+        <v>4.500484563122825</v>
       </c>
       <c r="G22">
-        <v>0.00257595791980133</v>
+        <v>0.0007740895305163513</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.42408392246341</v>
+        <v>2.339366873665512</v>
       </c>
       <c r="J22">
-        <v>0.1353789681298654</v>
+        <v>0.05574938552362774</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5148309787405339</v>
+        <v>0.5545485355179522</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.220594256123036</v>
+        <v>5.831481713993696</v>
       </c>
       <c r="C23">
-        <v>0.4890427776240927</v>
+        <v>1.467614702472247</v>
       </c>
       <c r="D23">
-        <v>0.01830596259446082</v>
+        <v>0.02374619482607088</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.17508349549766</v>
+        <v>4.3607367293001</v>
       </c>
       <c r="G23">
-        <v>0.002578237427757677</v>
+        <v>0.0007785274035503588</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.414854786823057</v>
+        <v>2.2752849001497</v>
       </c>
       <c r="J23">
-        <v>0.1355703452305068</v>
+        <v>0.05591676005707491</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5113958247120678</v>
+        <v>0.5349451360947626</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.028890733416119</v>
+        <v>4.938229350588074</v>
       </c>
       <c r="C24">
-        <v>0.4338365902394798</v>
+        <v>1.230867277476932</v>
       </c>
       <c r="D24">
-        <v>0.01715337560342789</v>
+        <v>0.01907793440141958</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.094333742750308</v>
+        <v>3.857671316326616</v>
       </c>
       <c r="G24">
-        <v>0.002587198330697591</v>
+        <v>0.0007953879567959347</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.381936337235018</v>
+        <v>2.046592830415079</v>
       </c>
       <c r="J24">
-        <v>0.1363430745269572</v>
+        <v>0.05666949551840972</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4988218931529929</v>
+        <v>0.4630426711196378</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.828503107112226</v>
+        <v>4.015836342170644</v>
       </c>
       <c r="C25">
-        <v>0.3751080563264679</v>
+        <v>0.9874377583008709</v>
       </c>
       <c r="D25">
-        <v>0.01590107882192626</v>
+        <v>0.01458678968852567</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.015041509852608</v>
+        <v>3.360277379276596</v>
       </c>
       <c r="G25">
-        <v>0.002597569860662342</v>
+        <v>0.0008138386830783956</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.350721005909691</v>
+        <v>1.824230357981634</v>
       </c>
       <c r="J25">
-        <v>0.1372789358172337</v>
+        <v>0.05770976236674841</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4861890806642464</v>
+        <v>0.3895041260922483</v>
       </c>
       <c r="M25">
         <v>0</v>
